--- a/Data/RedMattis/Big and Small - Framework - 2925432336/Big and Small - Framework - 2925432336.xlsx
+++ b/Data/RedMattis/Big and Small - Framework - 2925432336/Big and Small - Framework - 2925432336.xlsx
@@ -1,3999 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SteamLibrary\steamapps\common\RimWorld\Mods\MOD KOREAN TRANSLATE\trans\Big and Small - Framework - 2925432336\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SteamLibrary\steamapps\common\RimWorld\Mods\MOD KOREAN TRANSLATE\trans\Big and Small - Framework - 2925432336\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490F3035-C672-4A61-A22F-944328A056BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8B790D-EADA-41E2-86C0-F94E01187A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="2024-04-17_삭제된 노드 목록" sheetId="2" r:id="rId2"/>
-    <sheet name="2024-05-25_삭제된 노드 목록" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Lammergeier</author>
-  </authors>
-  <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000027000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000028000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E42" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000029000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-26 이전의 원문: 'How close this person is to reaching the next stage of Dracul vampirism.'</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E44" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E45" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E47" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002E000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002F000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E49" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000030000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E50" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000031000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E51" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000032000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E52" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000033000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E53" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000034000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E54" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000035000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E55" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000036000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E56" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000037000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E57" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000038000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E58" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000039000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E59" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E60" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E61" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E62" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E63" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003E000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E64" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003F000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E65" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000040000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E66" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000041000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E67" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000042000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E68" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000043000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E69" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000044000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E70" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000045000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E71" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000046000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E72" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000047000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E73" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000048000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E74" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000049000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E75" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E76" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E77" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E78" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E79" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004E000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E80" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004F000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E81" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000050000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E82" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000051000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E83" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000052000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E84" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000053000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E85" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000054000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E86" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000055000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E87" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000056000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E88" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000057000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E89" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000058000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E90" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000059000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E91" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00005A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E92" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00005B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E93" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00005C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E94" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00005D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E95" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00005E000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E96" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00005F000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E97" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000060000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E98" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000061000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E99" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000062000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E100" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000063000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E101" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000064000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E102" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000065000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E103" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000066000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E104" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000067000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E105" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000068000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E106" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000069000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E107" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00006A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E108" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00006B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E109" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00006C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E110" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00006D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E111" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00006E000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E112" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00006F000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E113" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000070000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E114" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000071000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E115" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000072000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E116" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000073000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E117" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000074000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E118" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000075000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E119" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000076000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E120" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000077000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E121" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000078000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E122" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000079000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E123" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00007A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E124" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00007B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E125" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00007C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E126" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00007D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E127" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00007E000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E128" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00007F000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E129" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000080000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E130" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000081000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E131" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000082000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E132" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000083000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E133" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000084000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E134" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000085000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E135" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000086000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E136" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000087000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E137" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000088000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E138" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000089000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E139" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00008A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E140" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00008B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E141" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00008C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E142" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00008D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E143" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00008E000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E144" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00008F000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E145" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000090000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E146" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000091000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E147" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000092000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E148" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000093000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E149" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000094000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E150" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000095000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E151" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000096000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E152" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000097000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E153" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000098000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E154" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000099000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E155" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00009A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E156" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00009B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E157" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00009C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E158" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00009D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E159" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00009E000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E160" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00009F000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E161" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000A0000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E162" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000A1000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E163" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000A2000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E164" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000A3000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E165" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000A4000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E166" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000A5000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E167" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000A6000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E168" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000A7000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E169" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000A8000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E170" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000A9000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E171" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000AA000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E172" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000AB000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E173" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000AC000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E174" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000AD000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E175" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000AE000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E176" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000AF000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E177" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000B0000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E178" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000B1000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E179" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000B2000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E180" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000B3000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E181" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000B4000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E182" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000B5000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E183" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000B6000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E184" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000B7000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E185" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000B8000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E186" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000B9000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E187" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000BA000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E188" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000BB000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E189" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000BC000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E190" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000BD000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E191" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000BE000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E192" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000BF000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E193" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000C0000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E194" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000C1000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E195" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000C2000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E196" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000C3000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E197" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000C4000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E198" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000C5000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E199" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000C6000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E200" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000C7000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E201" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000C8000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E202" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000C9000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E203" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000CA000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E204" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000CB000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E205" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000CC000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E206" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000CD000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E207" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000CE000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E208" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000CF000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E209" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000D0000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E210" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000D1000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E211" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000D2000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E212" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000D3000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E213" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000D4000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E214" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000D5000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E215" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000D6000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E216" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000D7000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E217" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000D8000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E218" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000D9000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E219" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000DA000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E220" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000DB000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E221" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000DC000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E222" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000DD000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E223" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000DE000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E224" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000DF000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E225" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000E0000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E226" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000E1000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E227" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000E2000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E228" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000E3000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E229" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000E4000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E230" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000E5000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E231" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000E6000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E232" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000E7000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E233" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000E8000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E234" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000E9000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E235" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000EA000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E236" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000EB000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E237" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000EC000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E238" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000ED000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E239" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000EE000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E240" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000EF000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E241" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000F0000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E242" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000F1000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E243" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000F2000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E244" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000F3000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E245" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000F4000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E246" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000F5000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E247" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000F6000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E248" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000F7000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E249" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000F8000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E250" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000F9000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E251" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000FA000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E252" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000FB000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E253" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000FC000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E254" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000FD000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E255" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000FE000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E256" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-0000FF000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E257" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000000010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E258" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E259" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E260" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E261" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E262" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E263" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E264" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E265" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E266" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E267" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E268" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E269" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E270" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E271" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E272" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E273" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E274" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E275" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E276" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E277" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E278" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E279" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E280" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E281" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E282" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E283" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E284" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E285" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E286" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E287" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E288" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E289" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E290" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E291" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E292" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E293" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E294" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E295" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E296" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000027010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E297" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000028010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E298" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000029010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E299" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002A010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E300" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002B010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E301" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002C010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E302" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002D010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 소실되었던 원문이 추가되었습니다.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E310" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002E010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-17에 새로 추가된 노드들 (40개)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E350" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002F010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-25에 새로 추가된 노드들 (3개)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E353" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000030010000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-05-26에 새로 추가된 노드들 (14개)</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="1428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="1369">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -4511,7 +538,7 @@
     <t>VU_DraculAge.description</t>
   </si>
   <si>
-    <t>Keyed+BS_ReturningSoul_FireTitle</t>
+    <t>How close this person is to reaching the next stage of Dracul vampirism.\n\nSlaves, prisoners will be unable to increase stage nor will colonists in involuntary deathrest.\n\nA minimum of 75% Hemogen is also needed.</t>
   </si>
   <si>
     <t>이 사람이 드라큘 뱀파이리즘의 다음 단계에 얼마나 근접했는지 입니다.</t>
@@ -8276,10 +4303,16 @@
     <t>BS_EngulfedColonist</t>
   </si>
   <si>
-    <t>{0} swallowed {1}! {1} will try to fight their way out if now downed. Otherwise severe injuries to {0}'s stomach and torso will free them.</t>
-  </si>
-  <si>
-    <t>ThoughtDef+Pretty.stages.physically_awestriking.label</t>
+    <t>Keyed+BS_ReturningSoul_FireTitle</t>
+  </si>
+  <si>
+    <t>BS_ReturningSoul_FireTitle</t>
+  </si>
+  <si>
+    <t>{0} was killed by fire.</t>
+  </si>
+  <si>
+    <t>Keyed+BS_ReturningSoul_Fire</t>
   </si>
   <si>
     <r>
@@ -8289,168 +4322,126 @@
         <rFont val="맑은 고딕"/>
         <family val="2"/>
       </rPr>
-      <t>{0}(이)가 {1}(을)를 삼켰습니다! {1}은 지금 쓰러지면 탈출을 시도할 것입니다. 그렇지 않으면 {0}의 배와 몸통에 심각한 부상을 입어 자유로워질 것입니다.</t>
+      <t>{0}(이)가 화재로 사망했습니다.</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>Pretty.stages.physically_awestriking.label</t>
-  </si>
-  <si>
-    <t>신체적 경이로움</t>
-  </si>
-  <si>
-    <t>ThoughtDef+Pretty.stages.physically_breathtaking.label</t>
-  </si>
-  <si>
-    <t>Pretty.stages.physically_breathtaking.label</t>
-  </si>
-  <si>
-    <t>신체적 숨이 멎을 듯함</t>
-  </si>
-  <si>
-    <t>ThoughtDef+Pretty.stages.physically_stunning.label</t>
-  </si>
-  <si>
-    <t>Pretty.stages.physically_stunning.label</t>
-  </si>
-  <si>
-    <t>신체적 놀라움</t>
-  </si>
-  <si>
-    <t>ThoughtDef+Pretty.stages.physically_appealing.label</t>
-  </si>
-  <si>
-    <t>Pretty.stages.physically_appealing.label</t>
-  </si>
-  <si>
-    <t>신체적 매력</t>
-  </si>
-  <si>
-    <t>ThoughtDef+Ugly.stages.physically_revolting.label</t>
-  </si>
-  <si>
-    <t>Ugly.stages.physically_revolting.label</t>
-  </si>
-  <si>
-    <t>신체적 매스꺼움</t>
-  </si>
-  <si>
-    <t>ThoughtDef+Ugly.stages.physically_digusting.label</t>
-  </si>
-  <si>
-    <t>Ugly.stages.physically_digusting.label</t>
-  </si>
-  <si>
-    <t>신체적 역겨움</t>
-  </si>
-  <si>
-    <t>ThoughtDef+Ugly.stages.physically_hideous.label</t>
-  </si>
-  <si>
-    <t>Ugly.stages.physically_hideous.label</t>
-  </si>
-  <si>
-    <t>신체적 끔찍함</t>
-  </si>
-  <si>
-    <t>ThoughtDef+Ugly.stages.physically_unsightly.label</t>
-  </si>
-  <si>
-    <t>Ugly.stages.physically_unsightly.label</t>
-  </si>
-  <si>
-    <t>신체적 보기 흉함</t>
-  </si>
-  <si>
-    <t>HediffDef+VU_DraculVampirism.stages.turning.extraTooltip</t>
-  </si>
-  <si>
-    <t>VU_DraculVampirism.stages.turning.extraTooltip</t>
-  </si>
-  <si>
-    <t>잠을 많이 자야 할 것 같지만 그 외에는 괜찮습니다. 쉬지 않을 때는 건강하고 에너지가 넘칩니다.</t>
-  </si>
-  <si>
-    <t>HediffDef+VU_DraculVampirism.stages.infected.extraTooltip</t>
-  </si>
-  <si>
-    <t>VU_DraculVampirism.stages.infected.extraTooltip</t>
-  </si>
-  <si>
-    <t>평소보다 조금 더 자야 할 것 같지만 그 외에는 괜찮습니다. 오히려 활력이 넘치는 느낌입니다.</t>
-  </si>
-  <si>
-    <t>HediffDef+VU_DraculVampirism.stages.signs_of_infection.extraTooltip</t>
-  </si>
-  <si>
-    <t>VU_DraculVampirism.stages.signs_of_infection.extraTooltip</t>
-  </si>
-  <si>
-    <t>몸이 조금 아팠지만, 제 발목을 잡을 정도는 아니었습니다.</t>
-  </si>
-  <si>
-    <t>HediffDef+VU_DraculVampirism.stages.drained.extraTooltip</t>
-  </si>
-  <si>
-    <t>VU_DraculVampirism.stages.drained.extraTooltip</t>
-  </si>
-  <si>
-    <t>몸이 심하게 아파요.</t>
-  </si>
-  <si>
-    <t>HediffDef+VU_DraculVampirism.stages.weakened.extraTooltip</t>
-  </si>
-  <si>
-    <t>VU_DraculVampirism.stages.weakened.extraTooltip</t>
-  </si>
-  <si>
-    <t>약간 무기력하고 집중력이 떨어지는 것 같습니다.</t>
-  </si>
-  <si>
-    <t>HediffDef+VU_WhiteRoseThrall.stages.strong_bond.extraTooltip</t>
-  </si>
-  <si>
-    <t>VU_WhiteRoseThrall.stages.strong_bond.extraTooltip</t>
-  </si>
-  <si>
-    <t>강한 유대감과 묘한 추진력과 활력을 느낍니다.</t>
-  </si>
-  <si>
-    <t>HediffDef+VU_WhiteRoseThrall.stages.weakening_bond.extraTooltip</t>
-  </si>
-  <si>
-    <t>VU_WhiteRoseThrall.stages.weakening_bond.extraTooltip</t>
-  </si>
-  <si>
-    <t>허탈한 기분이 듭니다.</t>
-  </si>
-  <si>
-    <t>HediffDef+VU_WhiteRoseBite.stages.obsessive_thoughtpatterns.extraTooltip</t>
-  </si>
-  <si>
-    <t>VU_WhiteRoseBite.stages.obsessive_thoughtpatterns.extraTooltip</t>
-  </si>
-  <si>
-    <t>자꾸 집중력이 떨어집니다.</t>
-  </si>
-  <si>
-    <t>HediffDef+VU_WhiteRoseBite.stages.intrusive_thoughts.extraTooltip</t>
-  </si>
-  <si>
-    <t>VU_WhiteRoseBite.stages.intrusive_thoughts.extraTooltip</t>
-  </si>
-  <si>
-    <t>긴장을 풀면 생각이 자꾸 떠올라요.</t>
-  </si>
-  <si>
-    <t>HediffDef+VU_WhiteRoseBite.stages.mindwandering.extraTooltip</t>
-  </si>
-  <si>
-    <t>VU_WhiteRoseBite.stages.mindwandering.extraTooltip</t>
-  </si>
-  <si>
-    <t>기분이 좀 이상해요.</t>
+    <t>BS_ReturningSoul_Fire</t>
+  </si>
+  <si>
+    <t>{0} was prevented from ressurecting due to being killed by fire. This time it might be permanent.</t>
+  </si>
+  <si>
+    <t>{0}(이)가 화재로 인해 사망하여 다시 부활하지 못했습니다. 이번에는 영구적일 수 있습니다.</t>
+  </si>
+  <si>
+    <t>Keyed+BS_ReturningSoul_Failed</t>
+  </si>
+  <si>
+    <t>BS_ReturningSoul_Failed</t>
+  </si>
+  <si>
+    <t>{0} failed to find a suitable non-dessicated vessel to return to the world. Each failure increases the risk of disappearing forever.</t>
+  </si>
+  <si>
+    <t>Keyed+BS_ReturningSoul_FailedPermanent</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(이)가 세계로 돌아갈 수 있는 적절한 신선한 그릇을 찾지 못했습니다. 실패할 때마다 영원히 사라질 위험이 커집니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS_ReturningSoul_FailedPermanent</t>
+  </si>
+  <si>
+    <t>{0} failed to find a suitable vessel and has likely either decided to return in a faraway place or departed the world for good.</t>
+  </si>
+  <si>
+    <t>Keyed+BS_ReturningSoul_Success</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(은)는 적합한 그릇을 찾지 못하여 먼 곳으로 돌아가기로 결정했거나 영원히 세상을 떠났을 가능성이 높습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS_ReturningSoul_Success</t>
+  </si>
+  <si>
+    <t>{0} has returned from the void.</t>
+  </si>
+  <si>
+    <t>Keyed+BS_ReturningSoulCorpse_Success</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(이)가 공허에서 돌아왔습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS_ReturningSoulCorpse_Success</t>
+  </si>
+  <si>
+    <t>{0} has returned from the void by possessing the dead body of {1}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{0}(이)가 {1}의 시체에 빙의하여 공허에서 돌아왔습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keyed+BS_WasKilled_Title</t>
+  </si>
+  <si>
+    <t>Anomalous power usually gifted or stolen from dark archotechs.</t>
+  </si>
+  <si>
+    <t>BS_SoulPower.description</t>
+  </si>
+  <si>
+    <t>StatDef+BS_SoulPower.description</t>
+  </si>
+  <si>
+    <t>Anomalous Power</t>
+  </si>
+  <si>
+    <t>BS_SoulPower.label</t>
+  </si>
+  <si>
+    <t>StatDef+BS_SoulPower.label</t>
+  </si>
+  <si>
+    <t>{0} swallowed {1}! {1} will try to fight their way out as long as they are not downed. Otherwise severe injuries to {0}'s stomach and torso will free them.</t>
   </si>
   <si>
     <t>FactionDef+BS_ZombieFaction.leaderTitle</t>
@@ -8459,187 +4450,75 @@
     <t>BS_ZombieFaction.leaderTitle</t>
   </si>
   <si>
-    <t>physically digusting</t>
-  </si>
-  <si>
-    <t>physically revolting</t>
-  </si>
-  <si>
-    <t>physically breathtaking</t>
-  </si>
-  <si>
-    <t>physically awestriking</t>
-  </si>
-  <si>
-    <t>How close this person is to reaching the next stage of Dracul vampirism.\n\nSlaves, prisoners will be unable to increase stage nor will colonists in involuntary deathrest.\n\nA minimum of 75% Hemogen is also needed.</t>
-  </si>
-  <si>
-    <t>BS_ReturningSoul_FireTitle</t>
-  </si>
-  <si>
-    <t>{0} was killed by fire.</t>
-  </si>
-  <si>
-    <t>Keyed+BS_ReturningSoul_Fire</t>
-  </si>
-  <si>
-    <t>BS_ReturningSoul_Fire</t>
-  </si>
-  <si>
-    <t>{0} was prevented from ressurecting due to being killed by fire. This time it might be permanent.</t>
-  </si>
-  <si>
-    <t>Keyed+BS_ReturningSoul_Failed</t>
-  </si>
-  <si>
-    <t>BS_ReturningSoul_Failed</t>
-  </si>
-  <si>
-    <t>{0} failed to find a suitable non-dessicated vessel to return to the world. Each failure increases the risk of disappearing forever.</t>
-  </si>
-  <si>
-    <t>Keyed+BS_ReturningSoul_FailedPermanent</t>
-  </si>
-  <si>
-    <t>BS_ReturningSoul_FailedPermanent</t>
-  </si>
-  <si>
-    <t>{0} failed to find a suitable vessel and has likely either decided to return in a faraway place or departed the world for good.</t>
-  </si>
-  <si>
-    <t>Keyed+BS_ReturningSoul_Success</t>
-  </si>
-  <si>
-    <t>BS_ReturningSoul_Success</t>
-  </si>
-  <si>
-    <t>{0} has returned from the void.</t>
-  </si>
-  <si>
-    <t>Keyed+BS_ReturningSoulCorpse_Success</t>
-  </si>
-  <si>
-    <t>BS_ReturningSoulCorpse_Success</t>
-  </si>
-  <si>
-    <t>{0} has returned from the void by possessing the dead body of {1}</t>
-  </si>
-  <si>
-    <t>Patches.ThoughtDef+Ugly.stages.0.label</t>
-  </si>
-  <si>
-    <t>Patches.ThoughtDef</t>
-  </si>
-  <si>
-    <t>Ugly.stages.0.label</t>
-  </si>
-  <si>
-    <t>physically unsightly</t>
-  </si>
-  <si>
-    <t>Patches.ThoughtDef+Ugly.stages.1.label</t>
-  </si>
-  <si>
-    <t>Ugly.stages.1.label</t>
-  </si>
-  <si>
-    <t>physically hideous</t>
-  </si>
-  <si>
-    <t>Patches.ThoughtDef+Ugly.stages.2.label</t>
-  </si>
-  <si>
-    <t>Ugly.stages.2.label</t>
-  </si>
-  <si>
-    <t>Patches.ThoughtDef+Ugly.stages.3.label</t>
-  </si>
-  <si>
-    <t>Ugly.stages.3.label</t>
-  </si>
-  <si>
-    <t>Patches.ThoughtDef+Pretty.stages.0.label</t>
-  </si>
-  <si>
-    <t>Pretty.stages.0.label</t>
-  </si>
-  <si>
-    <t>physically appealing</t>
-  </si>
-  <si>
-    <t>Patches.ThoughtDef+Pretty.stages.1.label</t>
-  </si>
-  <si>
-    <t>Pretty.stages.1.label</t>
-  </si>
-  <si>
-    <t>physically stunning</t>
-  </si>
-  <si>
-    <t>Patches.ThoughtDef+Pretty.stages.2.label</t>
-  </si>
-  <si>
-    <t>Pretty.stages.2.label</t>
-  </si>
-  <si>
-    <t>Patches.ThoughtDef+Pretty.stages.3.label</t>
-  </si>
-  <si>
-    <t>Pretty.stages.3.label</t>
-  </si>
-  <si>
-    <t>{0}(이)가 화재로 사망했습니다.</t>
+    <t>BS_WasKilled_Title</t>
+  </si>
+  <si>
+    <t>{0} was killed.</t>
+  </si>
+  <si>
+    <t>Keyed+BS_WasKilledSoulless</t>
+  </si>
+  <si>
+    <t>BS_WasKilledSoulless</t>
+  </si>
+  <si>
+    <t>{0} was killed. Due to being soulless they will not be able to return.</t>
+  </si>
+  <si>
+    <t>Keyed+BS_CannotUseOnSoulless</t>
+  </si>
+  <si>
+    <t>BS_CannotUseOnSoulless</t>
+  </si>
+  <si>
+    <t>Cannot use on pawn without soul.</t>
+  </si>
+  <si>
+    <t>Keyed+BS_StoleSkillAmount</t>
+  </si>
+  <si>
+    <t>BS_StoleSkillAmount</t>
+  </si>
+  <si>
+    <t>{0}'s ability stole {1} xp in {2} from {3}</t>
+  </si>
+  <si>
+    <t>Keyed+BS_StoleSkillAmount_Attack</t>
+  </si>
+  <si>
+    <t>BS_StoleSkillAmount_Attack</t>
+  </si>
+  <si>
+    <t>{0}'s attack stole {1} xp in {2} from {3}</t>
+  </si>
+  <si>
+    <t>{0}(이)가 {1}(을)를 삼켰습니다! {1}(은)는 쓰러지지 않는 한 탈출을 시도할 것입니다. 탈출을 시도하면 {0}(은)는 배와 몸통에 심각한 부상을 입어 자유로워질 것입니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{0}(이)가 화재로 인해 사망하여 다시 부활하지 못했습니다. 이번에는 영구적일 수 있습니다.</t>
-  </si>
-  <si>
-    <t>{0}(이)가 세계로 돌아갈 수 있는 적절한 신선한 그릇을 찾지 못했습니다. 실패할 때마다 영원히 사라질 위험이 커집니다.</t>
+    <t>이상한 힘</t>
+  </si>
+  <si>
+    <t>이상한 힘은 보통 어둠 초월공학으로부터 선물로 받거나 훔쳐온 것입니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{0}(은)는 적합한 그릇을 찾지 못하여 먼 곳으로 돌아가기로 결정했거나 영원히 세상을 떠났을 가능성이 높습니다.</t>
+    <t>{0}(이)가 죽었습니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{0}(이)가 공허에서 돌아왔습니다.</t>
+    <t>{0}(이)가 죽었습니다. 영혼이 없기 때문에 돌아올 수 없습니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{0}(이)가 {1}의 시체에 빙의하여 공허에서 돌아왔습니다.</t>
+    <t>영혼이 없는 폰에게는 사용할 수 없습니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>육체적으로 보기 흉함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>육체적으로 끔찍함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>육체적으로 역겨움</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>육체적으로 매력적임</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>육체적으로 놀라움</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>육체적으로 숨이 멎을 듯함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>육체적으로 경이로움</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>육체적으로 혐오스러움</t>
+    <t>{0}의 능력이 {3}에서 {2}의 {1} 경험치를 훔쳤습니다.</t>
+  </si>
+  <si>
+    <t>{0}의 공격이 {3}에서 {2}의 {1} 경험치를 훔쳤습니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -8647,7 +4526,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -8666,29 +4545,13 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFA500"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF87CEEB"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -8703,11 +4566,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -9009,11 +4871,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F366"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
-      <selection activeCell="I366" sqref="I366"/>
+    <sheetView tabSelected="1" topLeftCell="A338" workbookViewId="0">
+      <selection activeCell="J368" sqref="J368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9738,7 +5600,7 @@
         <v>171</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>1375</v>
+        <v>172</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>173</v>
@@ -14248,1474 +10110,978 @@
         <v>1140</v>
       </c>
     </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A309" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E309" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>1145</v>
+      </c>
+    </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
-        <v>1142</v>
+        <v>1146</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>1143</v>
-      </c>
-      <c r="E310" s="3" t="s">
-        <v>1144</v>
+        <v>1147</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>1148</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>1145</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
-        <v>1146</v>
+        <v>1150</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>1147</v>
+        <v>1151</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>1148</v>
+        <v>1152</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>1149</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
-        <v>1150</v>
+        <v>1154</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>1151</v>
+        <v>1155</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>1152</v>
+        <v>1156</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>1153</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
-        <v>1154</v>
+        <v>1158</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>1155</v>
+        <v>1159</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>1156</v>
+        <v>1160</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>1157</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
-        <v>1158</v>
+        <v>1162</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>1159</v>
+        <v>1163</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>1160</v>
+        <v>1164</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>1161</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
-        <v>1162</v>
+        <v>1166</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>1163</v>
+        <v>1167</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>1164</v>
+        <v>1168</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>1165</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
-        <v>1166</v>
+        <v>1170</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>1167</v>
+        <v>1171</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>1168</v>
+        <v>1172</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>1169</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
-        <v>1170</v>
+        <v>1174</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>1171</v>
+        <v>1175</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>1172</v>
+        <v>1176</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>1173</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
-        <v>1174</v>
+        <v>1178</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>1175</v>
+        <v>1179</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>1176</v>
+        <v>1180</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>1177</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
-        <v>1178</v>
+        <v>1182</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>1179</v>
+        <v>1183</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>1180</v>
+        <v>1184</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>1184</v>
+        <v>1188</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>1185</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
-        <v>1186</v>
+        <v>1190</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>1187</v>
+        <v>1191</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>1188</v>
+        <v>1192</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>1189</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
-        <v>1190</v>
+        <v>1194</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>1191</v>
+        <v>1195</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>1192</v>
+        <v>1196</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>1193</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
-        <v>1194</v>
+        <v>1198</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>1195</v>
+        <v>1199</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>1196</v>
+        <v>1200</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>1197</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
-        <v>1198</v>
+        <v>1202</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>1199</v>
+        <v>1203</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>1200</v>
+        <v>1204</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>1201</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
-        <v>1202</v>
+        <v>1206</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>1203</v>
+        <v>1207</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>1205</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
-        <v>1206</v>
+        <v>1210</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>1207</v>
+        <v>1211</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>1208</v>
+        <v>1212</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>1209</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
-        <v>1210</v>
+        <v>1214</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>1211</v>
+        <v>1215</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>1212</v>
+        <v>1216</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>1213</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
-        <v>1214</v>
+        <v>1218</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>1215</v>
+        <v>1219</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>1216</v>
+        <v>1220</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>1217</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
-        <v>1218</v>
+        <v>1222</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>1219</v>
+        <v>1223</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>1220</v>
+        <v>1224</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>1221</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
-        <v>1222</v>
+        <v>1226</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>1223</v>
+        <v>1227</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>1224</v>
+        <v>1228</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>1225</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
-        <v>1226</v>
+        <v>1230</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>1227</v>
+        <v>1231</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>1228</v>
+        <v>1232</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>1229</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
-        <v>1230</v>
+        <v>1234</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>1231</v>
+        <v>1235</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>1232</v>
+        <v>1236</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>1233</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
-        <v>1234</v>
+        <v>1238</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>1235</v>
+        <v>1239</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>1236</v>
+        <v>1240</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>1237</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
-        <v>1238</v>
+        <v>1242</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>1239</v>
+        <v>1243</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>1240</v>
+        <v>1244</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>1241</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
-        <v>1242</v>
+        <v>1246</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>1243</v>
+        <v>1247</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>1244</v>
+        <v>1248</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>1245</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>1247</v>
+        <v>1251</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>1248</v>
+        <v>1252</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>1249</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
-        <v>1250</v>
+        <v>1254</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>1251</v>
+        <v>1255</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>1252</v>
+        <v>1256</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>1253</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
-        <v>1254</v>
+        <v>1258</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
-        <v>1258</v>
+        <v>1262</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>1259</v>
+        <v>1263</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>1260</v>
+        <v>1264</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>1261</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
-        <v>1262</v>
+        <v>1266</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>41</v>
+        <v>1267</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>1263</v>
+        <v>1268</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>1264</v>
+        <v>1168</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>1265</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
-        <v>1266</v>
+        <v>1270</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>1267</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>1168</v>
+        <v>1272</v>
       </c>
       <c r="F341" s="1" t="s">
-        <v>1269</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
-        <v>1270</v>
+        <v>1274</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>1267</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>1271</v>
+        <v>1275</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>1272</v>
+        <v>1276</v>
       </c>
       <c r="F342" s="1" t="s">
-        <v>1273</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
-        <v>1274</v>
+        <v>1278</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>1267</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>1275</v>
+        <v>1279</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>1276</v>
+        <v>1280</v>
       </c>
       <c r="F343" s="1" t="s">
-        <v>1277</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
-        <v>1278</v>
+        <v>1282</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>1267</v>
+        <v>1283</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>1279</v>
+        <v>1284</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>1280</v>
+        <v>1285</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>1281</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
-        <v>1282</v>
+        <v>1287</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>1283</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>1284</v>
+        <v>1288</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>1285</v>
+        <v>1289</v>
       </c>
       <c r="F345" s="1" t="s">
-        <v>1286</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
-        <v>1287</v>
+        <v>1291</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>1283</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>1288</v>
+        <v>1292</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>1289</v>
+        <v>1293</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>1290</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
-        <v>1291</v>
+        <v>1295</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>1283</v>
+        <v>887</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>1292</v>
+        <v>1296</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>1293</v>
+        <v>1297</v>
       </c>
       <c r="F347" s="1" t="s">
-        <v>1294</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
-        <v>1295</v>
+        <v>1299</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>887</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>1296</v>
-      </c>
-      <c r="E348" s="1" t="s">
-        <v>1297</v>
+        <v>1300</v>
+      </c>
+      <c r="E348" s="2" t="s">
+        <v>1301</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>1298</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
-        <v>1299</v>
+        <v>1303</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>887</v>
+        <v>730</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>1300</v>
-      </c>
-      <c r="E349" s="1" t="s">
-        <v>1301</v>
+        <v>1304</v>
+      </c>
+      <c r="E349" s="2" t="s">
+        <v>1305</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>1302</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
-        <v>1303</v>
+        <v>1307</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>730</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>1304</v>
-      </c>
-      <c r="E350" s="3" t="s">
-        <v>1305</v>
+        <v>1308</v>
+      </c>
+      <c r="E350" s="2" t="s">
+        <v>1309</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>1306</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
-        <v>1307</v>
+        <v>1311</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>730</v>
+        <v>887</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>1308</v>
-      </c>
-      <c r="E351" s="1" t="s">
-        <v>1309</v>
+        <v>1312</v>
+      </c>
+      <c r="E351" s="2" t="s">
+        <v>1344</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>1310</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>887</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>1312</v>
-      </c>
-      <c r="E352" s="1" t="s">
-        <v>1313</v>
+        <v>1314</v>
+      </c>
+      <c r="E352" s="2" t="s">
+        <v>1315</v>
       </c>
       <c r="F352" s="1" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
-        <v>172</v>
+        <v>1316</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>887</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>1376</v>
-      </c>
-      <c r="E353" s="3" t="s">
-        <v>1377</v>
+        <v>1318</v>
+      </c>
+      <c r="E353" s="2" t="s">
+        <v>1319</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>1414</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
-        <v>1378</v>
+        <v>1321</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>887</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E354" s="1" t="s">
-        <v>1380</v>
+        <v>1322</v>
+      </c>
+      <c r="E354" s="2" t="s">
+        <v>1323</v>
       </c>
       <c r="F354" s="1" t="s">
-        <v>1415</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
-        <v>1381</v>
+        <v>1324</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>887</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>1382</v>
-      </c>
-      <c r="E355" s="1" t="s">
-        <v>1383</v>
+        <v>1326</v>
+      </c>
+      <c r="E355" s="2" t="s">
+        <v>1327</v>
       </c>
       <c r="F355" s="1" t="s">
-        <v>1416</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
-        <v>1384</v>
+        <v>1328</v>
       </c>
       <c r="B356" s="1" t="s">
         <v>887</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>1385</v>
-      </c>
-      <c r="E356" s="1" t="s">
-        <v>1386</v>
+        <v>1330</v>
+      </c>
+      <c r="E356" s="2" t="s">
+        <v>1331</v>
       </c>
       <c r="F356" s="1" t="s">
-        <v>1417</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
-        <v>1387</v>
+        <v>1332</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>887</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>1388</v>
-      </c>
-      <c r="E357" s="1" t="s">
-        <v>1389</v>
+        <v>1334</v>
+      </c>
+      <c r="E357" s="2" t="s">
+        <v>1335</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>1418</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
-        <v>1390</v>
+        <v>1345</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>887</v>
+        <v>16</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>1391</v>
-      </c>
-      <c r="E358" s="1" t="s">
-        <v>1392</v>
+        <v>1346</v>
+      </c>
+      <c r="E358" s="2" t="s">
+        <v>1139</v>
       </c>
       <c r="F358" s="1" t="s">
-        <v>1419</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
-        <v>1393</v>
+        <v>1343</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>1394</v>
+        <v>730</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>1395</v>
-      </c>
-      <c r="E359" s="1" t="s">
-        <v>1396</v>
+        <v>1342</v>
+      </c>
+      <c r="E359" s="2" t="s">
+        <v>1341</v>
       </c>
       <c r="F359" s="1" t="s">
-        <v>1420</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
-        <v>1397</v>
+        <v>1340</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>1394</v>
+        <v>730</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>1398</v>
-      </c>
-      <c r="E360" s="1" t="s">
-        <v>1399</v>
+        <v>1339</v>
+      </c>
+      <c r="E360" s="2" t="s">
+        <v>1338</v>
       </c>
       <c r="F360" s="1" t="s">
-        <v>1421</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
-        <v>1400</v>
+        <v>1337</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>1394</v>
+        <v>887</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>1401</v>
-      </c>
-      <c r="E361" s="1" t="s">
-        <v>1371</v>
+        <v>1347</v>
+      </c>
+      <c r="E361" s="2" t="s">
+        <v>1348</v>
       </c>
       <c r="F361" s="1" t="s">
-        <v>1422</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
-        <v>1402</v>
+        <v>1349</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>1394</v>
+        <v>887</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>1403</v>
-      </c>
-      <c r="E362" s="1" t="s">
-        <v>1372</v>
+        <v>1350</v>
+      </c>
+      <c r="E362" s="2" t="s">
+        <v>1351</v>
       </c>
       <c r="F362" s="1" t="s">
-        <v>1427</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
-        <v>1404</v>
+        <v>1352</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>1394</v>
+        <v>887</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>1405</v>
-      </c>
-      <c r="E363" s="1" t="s">
-        <v>1406</v>
+        <v>1353</v>
+      </c>
+      <c r="E363" s="2" t="s">
+        <v>1354</v>
       </c>
       <c r="F363" s="1" t="s">
-        <v>1423</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
-        <v>1407</v>
+        <v>1355</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>1394</v>
+        <v>887</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>1408</v>
+        <v>1356</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>1409</v>
+        <v>1357</v>
       </c>
       <c r="F364" s="1" t="s">
-        <v>1424</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
-        <v>1410</v>
+        <v>1358</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>1394</v>
+        <v>887</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>1411</v>
+        <v>1359</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>1373</v>
+        <v>1360</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A366" s="1" t="s">
-        <v>1412</v>
-      </c>
-      <c r="B366" s="1" t="s">
-        <v>1394</v>
-      </c>
-      <c r="C366" s="1" t="s">
-        <v>1413</v>
-      </c>
-      <c r="E366" s="1" t="s">
-        <v>1374</v>
-      </c>
-      <c r="F366" s="1" t="s">
-        <v>1426</v>
+        <v>1368</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6 A6:G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="47" customWidth="1"/>
-    <col min="5" max="5" width="29" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1314</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1316</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>1317</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1318</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1319</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>1320</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>1321</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1322</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>1323</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>1324</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1325</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>1326</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>1327</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1328</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>1329</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>1330</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1331</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>1332</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>1333</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1334</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>1335</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>1336</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1337</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
-        <v>1338</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>1339</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1340</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>1341</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>1342</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1343</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>1344</v>
-      </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>1345</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1346</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
-        <v>1347</v>
-      </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>1348</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>1349</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
-        <v>1350</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>1351</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>1352</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
-        <v>1353</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>1354</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>1355</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
-        <v>1356</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>1357</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>1358</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1" t="s">
-        <v>1359</v>
-      </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>1360</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>1361</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1" t="s">
-        <v>1362</v>
-      </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>1363</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>1364</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1" t="s">
-        <v>1365</v>
-      </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>1366</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>1367</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
-        <v>1368</v>
-      </c>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>1369</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>1370</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1" t="s">
-        <v>1140</v>
-      </c>
-      <c r="G20" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1330</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1331</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>1371</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>1332</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1327</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1328</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>1372</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>1329</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>1318</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1319</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>1373</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>1320</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>1314</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1316</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>1374</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>1317</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>1369</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1370</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>1139</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>1140</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
 </file>